--- a/biology/Botanique/Potamot_flottant/Potamot_flottant.xlsx
+++ b/biology/Botanique/Potamot_flottant/Potamot_flottant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamot nageant, Potamot flottant, Épi d'eau
 Potamogeton natans, le Potamot nageant, Potamot flottant ou Épi d'eau, est une espèce de plantes à fleurs aquatiques de la famille des Potamogetonaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : vert
@@ -555,9 +569,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des formes selon GBIF       (4 septembre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des formes selon GBIF       (4 septembre 2021) :
 Potamogeton natans f. natans
 Potamogeton natans f. submersus</t>
         </is>
@@ -587,11 +603,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Potamogeton natans L.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Potamot nageant[1],[2],[3],[4], Potamot flottant[1],[3], Épi d'eau[3].
-Potamogeton natans a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Potamogeton natans L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Potamot nageant Potamot flottant Épi d'eau.
+Potamogeton natans a pour synonymes :
 Buccaferrea natans (L.) Bubani
 Potamogeton affinis Boenn.
 Potamogeton affinis Boenn. ex Cham. &amp; Schlecht.
